--- a/biology/Botanique/Légumine/Légumine.xlsx
+++ b/biology/Botanique/Légumine/Légumine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9gumine</t>
+          <t>Légumine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les légumines sont des protéines végétales de réserve de la famille des globulines. Appelées aussi globulines 11S[1], elles sont présentes notamment dans les graines de certaines légumineuses (arachide, fève, haricot, pois, soja, etc.). 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les légumines sont des protéines végétales de réserve de la famille des globulines. Appelées aussi globulines 11S, elles sont présentes notamment dans les graines de certaines légumineuses (arachide, fève, haricot, pois, soja, etc.). 
 </t>
         </is>
       </c>
